--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="99">
   <si>
     <t>csv</t>
   </si>
@@ -297,6 +297,24 @@
   </si>
   <si>
     <t>C:\Users\india\PycharmProjects\Framework_april_rohit1\source_files\Contact_info.csv</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_april_rohit1\source_files\Complex.json</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_april_rohit1\source_files\userdata1.parquet</t>
+  </si>
+  <si>
+    <t>parquet</t>
+  </si>
+  <si>
+    <t>avro</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_april_rohit1\source_files\userdata1.avro</t>
   </si>
 </sst>
 </file>
@@ -900,7 +918,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1043,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>27</v>
@@ -1066,10 +1084,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -1077,8 +1095,8 @@
       <c r="F3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>77</v>
+      <c r="G3" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>31</v>
@@ -1108,7 +1126,7 @@
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>27</v>
@@ -1131,10 +1149,10 @@
         <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -1173,7 +1191,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>27</v>
@@ -1196,10 +1214,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="111">
   <si>
     <t>csv</t>
   </si>
@@ -179,9 +179,6 @@
     <t>birthmonth</t>
   </si>
   <si>
-    <t>CIRB_5</t>
-  </si>
-  <si>
     <t>CIRB_6</t>
   </si>
   <si>
@@ -345,18 +342,34 @@
   </si>
   <si>
     <t>CIFF_13</t>
+  </si>
+  <si>
+    <t>CIFF_14</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>C:\Users\india\PycharmProjects\Framework_april_rohit1\transformation_queries\snowflake.sql</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,38 +558,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -585,42 +601,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,10 +931,10 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -959,10 +975,10 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -1019,7 +1035,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -1034,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>0</v>
@@ -1061,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>27</v>
@@ -1084,10 +1100,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -1126,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>27</v>
@@ -1149,7 +1165,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -1161,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>31</v>
@@ -1191,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>27</v>
@@ -1214,10 +1230,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
@@ -1226,7 +1242,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>31</v>
@@ -1256,7 +1272,7 @@
         <v>21</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>27</v>
@@ -1279,7 +1295,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1291,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>31</v>
@@ -1321,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>27</v>
@@ -1344,10 +1360,10 @@
         <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -1356,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>31</v>
@@ -1386,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>27</v>
@@ -1406,37 +1422,37 @@
         <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>18</v>
@@ -1451,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>27</v>
@@ -1468,13 +1484,13 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
@@ -1489,19 +1505,19 @@
         <v>20</v>
       </c>
       <c r="H9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>18</v>
@@ -1516,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>27</v>
@@ -1533,16 +1549,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -1554,10 +1570,10 @@
         <v>20</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>20</v>
@@ -1581,7 +1597,7 @@
         <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>27</v>
@@ -1598,13 +1614,13 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
@@ -1619,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>0</v>
@@ -1646,7 +1662,7 @@
         <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>27</v>
@@ -1663,13 +1679,13 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
@@ -1684,7 +1700,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>0</v>
@@ -1711,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>27</v>
@@ -1728,13 +1744,13 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>0</v>
@@ -1749,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>0</v>
@@ -1776,7 +1792,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>27</v>
@@ -1793,13 +1809,13 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
@@ -1814,7 +1830,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>0</v>
@@ -1841,7 +1857,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>27</v>
@@ -1857,41 +1873,41 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="16" t="s">
-        <v>53</v>
+      <c r="A15" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>33</v>
+      <c r="J15" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>20</v>
+      <c r="L15" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>18</v>
@@ -1906,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>27</v>
@@ -1923,7 +1939,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>44</v>
@@ -1938,13 +1954,13 @@
         <v>33</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>32</v>
@@ -1970,8 +1986,8 @@
       <c r="P16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="29" t="s">
-        <v>76</v>
+      <c r="Q16" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>27</v>
@@ -1988,7 +2004,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>45</v>
@@ -2003,13 +2019,13 @@
         <v>33</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>32</v>
@@ -2036,7 +2052,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>27</v>
@@ -2053,13 +2069,13 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>32</v>
@@ -2068,13 +2084,13 @@
         <v>33</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>32</v>
@@ -2101,7 +2117,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>27</v>
@@ -2118,13 +2134,13 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
@@ -2133,13 +2149,13 @@
         <v>33</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>32</v>
@@ -2166,7 +2182,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>27</v>
@@ -2183,13 +2199,13 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>32</v>
@@ -2198,13 +2214,13 @@
         <v>33</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>32</v>
@@ -2231,7 +2247,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>27</v>
@@ -2248,13 +2264,13 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>32</v>
@@ -2263,13 +2279,13 @@
         <v>33</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>32</v>
@@ -2296,7 +2312,7 @@
         <v>21</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>27</v>
@@ -2313,13 +2329,13 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>32</v>
@@ -2328,13 +2344,13 @@
         <v>33</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>32</v>
@@ -2361,7 +2377,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>27</v>
@@ -2378,13 +2394,13 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>32</v>
@@ -2393,13 +2409,13 @@
         <v>33</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>32</v>
@@ -2426,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>27</v>
@@ -2443,13 +2459,13 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>32</v>
@@ -2458,13 +2474,13 @@
         <v>33</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>32</v>
@@ -2491,7 +2507,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>27</v>
@@ -2508,13 +2524,13 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>32</v>
@@ -2523,13 +2539,13 @@
         <v>33</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>32</v>
@@ -2556,7 +2572,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>49</v>
@@ -2573,13 +2589,13 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>32</v>
@@ -2588,13 +2604,13 @@
         <v>33</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>32</v>
@@ -2621,7 +2637,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R26" s="14" t="s">
         <v>52</v>
@@ -2638,13 +2654,13 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>32</v>
@@ -2653,13 +2669,13 @@
         <v>33</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>32</v>
@@ -2686,7 +2702,7 @@
         <v>21</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>50</v>
@@ -2703,13 +2719,13 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>32</v>
@@ -2718,13 +2734,13 @@
         <v>33</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>32</v>
@@ -2739,19 +2755,19 @@
         <v>20</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>27</v>
@@ -2768,13 +2784,13 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>0</v>
@@ -2786,16 +2802,16 @@
         <v>20</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="J29" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>20</v>
@@ -2816,7 +2832,7 @@
         <v>21</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>27</v>
@@ -2833,13 +2849,13 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>0</v>
@@ -2851,16 +2867,16 @@
         <v>20</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="J30" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>20</v>
@@ -2881,7 +2897,7 @@
         <v>21</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>27</v>
@@ -2898,13 +2914,13 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>0</v>
@@ -2916,16 +2932,16 @@
         <v>20</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="J31" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K31" s="19" t="s">
         <v>20</v>
@@ -2946,7 +2962,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>27</v>
@@ -2963,13 +2979,13 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>0</v>
@@ -2981,16 +2997,16 @@
         <v>20</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H32" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="J32" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K32" s="19" t="s">
         <v>20</v>
@@ -3011,7 +3027,7 @@
         <v>21</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>27</v>
@@ -3028,13 +3044,13 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>0</v>
@@ -3046,16 +3062,16 @@
         <v>20</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="J33" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>20</v>
@@ -3076,7 +3092,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>27</v>
@@ -3093,13 +3109,13 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>0</v>
@@ -3111,16 +3127,16 @@
         <v>20</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="J34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>20</v>
@@ -3141,7 +3157,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>27</v>
@@ -3158,13 +3174,13 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>0</v>
@@ -3176,16 +3192,16 @@
         <v>20</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H35" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="J35" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>20</v>
@@ -3206,7 +3222,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>27</v>
@@ -3222,7 +3238,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q35">
       <formula1>"Y,N"</formula1>
